--- a/ДЗ по 2 модулю.xlsx
+++ b/ДЗ по 2 модулю.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="154">
   <si>
     <t>passed</t>
   </si>
@@ -747,6 +747,12 @@
   </si>
   <si>
     <t>Отобразилась новостная страница</t>
+  </si>
+  <si>
+    <t>прошел</t>
+  </si>
+  <si>
+    <t>баг</t>
   </si>
 </sst>
 </file>
@@ -1203,6 +1209,21 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1217,21 +1238,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1566,7 +1572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1841,43 +1847,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="52" t="s">
+      <c r="F6" s="52"/>
+      <c r="G6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="55"/>
+      <c r="J6" s="48"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="54" t="s">
+      <c r="L6" s="47" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="54" t="s">
+      <c r="N6" s="47" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="54"/>
+      <c r="P6" s="47"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="54"/>
+      <c r="R6" s="47"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="54"/>
+      <c r="T6" s="47"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1887,29 +1893,29 @@
     </row>
     <row r="7" spans="1:124" ht="127.05" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="48"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="56"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="54"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="54"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="54"/>
+      <c r="P7" s="47"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="54"/>
+      <c r="R7" s="47"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="54"/>
+      <c r="T7" s="47"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -3585,6 +3591,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3592,12 +3604,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42">
@@ -3700,44 +3706,44 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="47"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="48"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="42" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="56"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="89.4" customHeight="1">
       <c r="A8" s="3">
@@ -4401,44 +4407,44 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="47"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="48"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="42" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="56"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="85.8" customHeight="1">
       <c r="A8" s="3">
@@ -5188,8 +5194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5266,44 +5272,44 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="47"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="48"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="56"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="85.8" customHeight="1">
       <c r="A8" s="3">
@@ -5322,7 +5328,9 @@
         <v>116</v>
       </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>152</v>
+      </c>
       <c r="H8" s="21"/>
       <c r="I8" s="20"/>
     </row>
@@ -5341,7 +5349,9 @@
         <v>117</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>152</v>
+      </c>
       <c r="H9" s="28"/>
       <c r="I9" s="20"/>
     </row>
@@ -5360,7 +5370,9 @@
         <v>116</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="H10" s="21"/>
       <c r="I10" s="20"/>
     </row>
@@ -5854,44 +5866,44 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="25.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="48"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="56"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="62.4" customHeight="1">
       <c r="A8" s="3">
